--- a/TreatyData '70-'79 v1.xlsx
+++ b/TreatyData '70-'79 v1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9740" yWindow="460" windowWidth="13120" windowHeight="14240" tabRatio="500" firstSheet="3" activeTab="6"/>
+    <workbookView xWindow="2920" yWindow="460" windowWidth="19940" windowHeight="14240" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="CountryTreaties" sheetId="12" r:id="rId1"/>
@@ -24,7 +24,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CountryNormalization!$A$1:$C$1486</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CountryTreaties!$A$1:$D$2031</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">CountryTreatiesClean!$A$1:$D$1486</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ProliferationLevel!$A$1:$C$1496</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ProliferationLevel!$A$1:$C$1486</definedName>
     <definedName name="Aid">#REF!</definedName>
     <definedName name="Aid70s" localSheetId="2">#REF!</definedName>
     <definedName name="Aid70s" localSheetId="1">#REF!</definedName>
@@ -29530,7 +29530,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1486"/>
   <sheetViews>
-    <sheetView topLeftCell="A448" workbookViewId="0">
+    <sheetView topLeftCell="A1210" workbookViewId="0">
       <selection activeCell="A454" sqref="A454"/>
     </sheetView>
   </sheetViews>
@@ -67290,10 +67290,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1496"/>
+  <dimension ref="A1:C1486"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" topLeftCell="A1213" workbookViewId="0">
+      <selection activeCell="D1229" sqref="D1229"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -80698,7 +80698,7 @@
     </row>
     <row r="1219" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1219">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B1219">
         <v>1970</v>
@@ -80709,7 +80709,7 @@
     </row>
     <row r="1220" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1220">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B1220">
         <v>1971</v>
@@ -80720,7 +80720,7 @@
     </row>
     <row r="1221" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1221">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B1221">
         <v>1972</v>
@@ -80731,7 +80731,7 @@
     </row>
     <row r="1222" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1222">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B1222">
         <v>1973</v>
@@ -80742,7 +80742,7 @@
     </row>
     <row r="1223" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1223">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B1223">
         <v>1974</v>
@@ -80753,7 +80753,7 @@
     </row>
     <row r="1224" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1224">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B1224">
         <v>1975</v>
@@ -80764,7 +80764,7 @@
     </row>
     <row r="1225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1225">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B1225">
         <v>1976</v>
@@ -80775,7 +80775,7 @@
     </row>
     <row r="1226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1226">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B1226">
         <v>1977</v>
@@ -80786,238 +80786,238 @@
     </row>
     <row r="1227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1227">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B1227">
         <v>1978</v>
       </c>
       <c r="C1227">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1228">
-        <v>713</v>
+        <v>731</v>
       </c>
       <c r="B1228">
         <v>1979</v>
       </c>
       <c r="C1228">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="1229" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1229">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B1229">
         <v>1970</v>
       </c>
       <c r="C1229">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1230" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1230">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B1230">
         <v>1971</v>
       </c>
       <c r="C1230">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1231" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1231">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B1231">
         <v>1972</v>
       </c>
       <c r="C1231">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1232" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1232">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B1232">
         <v>1973</v>
       </c>
       <c r="C1232">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1233" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1233">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B1233">
         <v>1974</v>
       </c>
       <c r="C1233">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1234" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1234">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B1234">
         <v>1975</v>
       </c>
       <c r="C1234">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1235" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1235">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B1235">
         <v>1976</v>
       </c>
       <c r="C1235">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1236" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1236">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B1236">
         <v>1977</v>
       </c>
       <c r="C1236">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1237" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1237">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B1237">
         <v>1978</v>
       </c>
       <c r="C1237">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1238" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1238">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B1238">
         <v>1979</v>
       </c>
       <c r="C1238">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1239">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B1239">
         <v>1970</v>
       </c>
       <c r="C1239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1240">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B1240">
         <v>1971</v>
       </c>
       <c r="C1240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1241" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1241">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B1241">
         <v>1972</v>
       </c>
       <c r="C1241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1242" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1242">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B1242">
         <v>1973</v>
       </c>
       <c r="C1242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1243" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1243">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B1243">
         <v>1974</v>
       </c>
       <c r="C1243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1244" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1244">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B1244">
         <v>1975</v>
       </c>
       <c r="C1244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1245" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1245">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B1245">
         <v>1976</v>
       </c>
       <c r="C1245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1246" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1246">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B1246">
         <v>1977</v>
       </c>
       <c r="C1246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1247" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1247">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B1247">
         <v>1978</v>
       </c>
       <c r="C1247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1248" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1248">
-        <v>732</v>
+        <v>740</v>
       </c>
       <c r="B1248">
         <v>1979</v>
@@ -81028,227 +81028,227 @@
     </row>
     <row r="1249" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1249">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B1249">
         <v>1970</v>
       </c>
       <c r="C1249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1250" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1250">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B1250">
         <v>1971</v>
       </c>
       <c r="C1250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1251" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1251">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B1251">
         <v>1972</v>
       </c>
       <c r="C1251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1252" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1252">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B1252">
         <v>1973</v>
       </c>
       <c r="C1252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1253" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1253">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B1253">
         <v>1974</v>
       </c>
       <c r="C1253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1254" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1254">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B1254">
         <v>1975</v>
       </c>
       <c r="C1254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1255" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1255">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B1255">
         <v>1976</v>
       </c>
       <c r="C1255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1256" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1256">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B1256">
         <v>1977</v>
       </c>
       <c r="C1256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1257" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1257">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B1257">
         <v>1978</v>
       </c>
       <c r="C1257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1258" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1258">
-        <v>740</v>
+        <v>750</v>
       </c>
       <c r="B1258">
         <v>1979</v>
       </c>
       <c r="C1258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1259" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1259">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B1259">
         <v>1970</v>
       </c>
       <c r="C1259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1260" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1260">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B1260">
         <v>1971</v>
       </c>
       <c r="C1260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1261" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1261">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B1261">
         <v>1972</v>
       </c>
       <c r="C1261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1262" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1262">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B1262">
         <v>1973</v>
       </c>
       <c r="C1262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1263">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B1263">
         <v>1974</v>
       </c>
       <c r="C1263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1264" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1264">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B1264">
         <v>1975</v>
       </c>
       <c r="C1264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1265" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1265">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B1265">
         <v>1976</v>
       </c>
       <c r="C1265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1266" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1266">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B1266">
         <v>1977</v>
       </c>
       <c r="C1266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1267" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1267">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B1267">
         <v>1978</v>
       </c>
       <c r="C1267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1268" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1268">
-        <v>750</v>
+        <v>760</v>
       </c>
       <c r="B1268">
         <v>1979</v>
       </c>
       <c r="C1268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1269" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1269">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B1269">
         <v>1970</v>
@@ -81259,7 +81259,7 @@
     </row>
     <row r="1270" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1270">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B1270">
         <v>1971</v>
@@ -81270,98 +81270,98 @@
     </row>
     <row r="1271" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1271">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B1271">
         <v>1972</v>
       </c>
       <c r="C1271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1272" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1272">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B1272">
         <v>1973</v>
       </c>
       <c r="C1272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1273" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1273">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B1273">
         <v>1974</v>
       </c>
       <c r="C1273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1274" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1274">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B1274">
         <v>1975</v>
       </c>
       <c r="C1274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1275" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1275">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B1275">
         <v>1976</v>
       </c>
       <c r="C1275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1276" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1276">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B1276">
         <v>1977</v>
       </c>
       <c r="C1276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1277" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1277">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B1277">
         <v>1978</v>
       </c>
       <c r="C1277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1278" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1278">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="B1278">
         <v>1979</v>
       </c>
       <c r="C1278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1279" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1279">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B1279">
-        <v>1970</v>
+        <v>1972</v>
       </c>
       <c r="C1279">
         <v>0</v>
@@ -81369,10 +81369,10 @@
     </row>
     <row r="1280" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1280">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B1280">
-        <v>1971</v>
+        <v>1973</v>
       </c>
       <c r="C1280">
         <v>0</v>
@@ -81380,95 +81380,95 @@
     </row>
     <row r="1281" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1281">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B1281">
-        <v>1972</v>
+        <v>1974</v>
       </c>
       <c r="C1281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1282" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1282">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B1282">
-        <v>1973</v>
+        <v>1975</v>
       </c>
       <c r="C1282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1283" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1283">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B1283">
-        <v>1974</v>
+        <v>1976</v>
       </c>
       <c r="C1283">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1284" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1284">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B1284">
-        <v>1975</v>
+        <v>1977</v>
       </c>
       <c r="C1284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1285" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1285">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B1285">
-        <v>1976</v>
+        <v>1978</v>
       </c>
       <c r="C1285">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1286" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1286">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B1286">
-        <v>1977</v>
+        <v>1979</v>
       </c>
       <c r="C1286">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1287" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1287">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="B1287">
-        <v>1978</v>
+        <v>1970</v>
       </c>
       <c r="C1287">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1288" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1288">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="B1288">
-        <v>1979</v>
+        <v>1971</v>
       </c>
       <c r="C1288">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1289" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1289">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B1289">
         <v>1972</v>
@@ -81479,7 +81479,7 @@
     </row>
     <row r="1290" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1290">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B1290">
         <v>1973</v>
@@ -81490,7 +81490,7 @@
     </row>
     <row r="1291" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1291">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B1291">
         <v>1974</v>
@@ -81501,7 +81501,7 @@
     </row>
     <row r="1292" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1292">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B1292">
         <v>1975</v>
@@ -81512,7 +81512,7 @@
     </row>
     <row r="1293" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1293">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B1293">
         <v>1976</v>
@@ -81523,7 +81523,7 @@
     </row>
     <row r="1294" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1294">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B1294">
         <v>1977</v>
@@ -81534,7 +81534,7 @@
     </row>
     <row r="1295" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1295">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B1295">
         <v>1978</v>
@@ -81545,7 +81545,7 @@
     </row>
     <row r="1296" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1296">
-        <v>771</v>
+        <v>775</v>
       </c>
       <c r="B1296">
         <v>1979</v>
@@ -81556,7 +81556,7 @@
     </row>
     <row r="1297" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1297">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B1297">
         <v>1970</v>
@@ -81567,7 +81567,7 @@
     </row>
     <row r="1298" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1298">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B1298">
         <v>1971</v>
@@ -81578,7 +81578,7 @@
     </row>
     <row r="1299" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1299">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B1299">
         <v>1972</v>
@@ -81589,7 +81589,7 @@
     </row>
     <row r="1300" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1300">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B1300">
         <v>1973</v>
@@ -81600,7 +81600,7 @@
     </row>
     <row r="1301" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1301">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B1301">
         <v>1974</v>
@@ -81611,7 +81611,7 @@
     </row>
     <row r="1302" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1302">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B1302">
         <v>1975</v>
@@ -81622,7 +81622,7 @@
     </row>
     <row r="1303" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1303">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B1303">
         <v>1976</v>
@@ -81633,7 +81633,7 @@
     </row>
     <row r="1304" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1304">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B1304">
         <v>1977</v>
@@ -81644,7 +81644,7 @@
     </row>
     <row r="1305" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1305">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B1305">
         <v>1978</v>
@@ -81655,7 +81655,7 @@
     </row>
     <row r="1306" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1306">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="B1306">
         <v>1979</v>
@@ -81666,7 +81666,7 @@
     </row>
     <row r="1307" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1307">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B1307">
         <v>1970</v>
@@ -81677,7 +81677,7 @@
     </row>
     <row r="1308" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1308">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B1308">
         <v>1971</v>
@@ -81688,7 +81688,7 @@
     </row>
     <row r="1309" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1309">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B1309">
         <v>1972</v>
@@ -81699,7 +81699,7 @@
     </row>
     <row r="1310" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1310">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B1310">
         <v>1973</v>
@@ -81710,7 +81710,7 @@
     </row>
     <row r="1311" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1311">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B1311">
         <v>1974</v>
@@ -81721,7 +81721,7 @@
     </row>
     <row r="1312" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1312">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B1312">
         <v>1975</v>
@@ -81732,7 +81732,7 @@
     </row>
     <row r="1313" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1313">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B1313">
         <v>1976</v>
@@ -81743,7 +81743,7 @@
     </row>
     <row r="1314" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1314">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B1314">
         <v>1977</v>
@@ -81754,7 +81754,7 @@
     </row>
     <row r="1315" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1315">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B1315">
         <v>1978</v>
@@ -81765,7 +81765,7 @@
     </row>
     <row r="1316" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1316">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B1316">
         <v>1979</v>
@@ -81776,7 +81776,7 @@
     </row>
     <row r="1317" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1317">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="B1317">
         <v>1970</v>
@@ -81787,7 +81787,7 @@
     </row>
     <row r="1318" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1318">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="B1318">
         <v>1971</v>
@@ -81798,7 +81798,7 @@
     </row>
     <row r="1319" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1319">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="B1319">
         <v>1972</v>
@@ -81809,7 +81809,7 @@
     </row>
     <row r="1320" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1320">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="B1320">
         <v>1973</v>
@@ -81820,7 +81820,7 @@
     </row>
     <row r="1321" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1321">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="B1321">
         <v>1974</v>
@@ -81831,7 +81831,7 @@
     </row>
     <row r="1322" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1322">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="B1322">
         <v>1975</v>
@@ -81842,7 +81842,7 @@
     </row>
     <row r="1323" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1323">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="B1323">
         <v>1976</v>
@@ -81853,7 +81853,7 @@
     </row>
     <row r="1324" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1324">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="B1324">
         <v>1977</v>
@@ -81864,7 +81864,7 @@
     </row>
     <row r="1325" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1325">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="B1325">
         <v>1978</v>
@@ -81875,7 +81875,7 @@
     </row>
     <row r="1326" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1326">
-        <v>781</v>
+        <v>790</v>
       </c>
       <c r="B1326">
         <v>1979</v>
@@ -81886,7 +81886,7 @@
     </row>
     <row r="1327" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1327">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B1327">
         <v>1970</v>
@@ -81897,7 +81897,7 @@
     </row>
     <row r="1328" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1328">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B1328">
         <v>1971</v>
@@ -81908,7 +81908,7 @@
     </row>
     <row r="1329" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1329">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B1329">
         <v>1972</v>
@@ -81919,7 +81919,7 @@
     </row>
     <row r="1330" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1330">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B1330">
         <v>1973</v>
@@ -81930,7 +81930,7 @@
     </row>
     <row r="1331" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1331">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B1331">
         <v>1974</v>
@@ -81941,7 +81941,7 @@
     </row>
     <row r="1332" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1332">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B1332">
         <v>1975</v>
@@ -81952,7 +81952,7 @@
     </row>
     <row r="1333" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1333">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B1333">
         <v>1976</v>
@@ -81963,7 +81963,7 @@
     </row>
     <row r="1334" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1334">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B1334">
         <v>1977</v>
@@ -81974,7 +81974,7 @@
     </row>
     <row r="1335" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1335">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B1335">
         <v>1978</v>
@@ -81985,7 +81985,7 @@
     </row>
     <row r="1336" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1336">
-        <v>790</v>
+        <v>800</v>
       </c>
       <c r="B1336">
         <v>1979</v>
@@ -81996,7 +81996,7 @@
     </row>
     <row r="1337" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1337">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B1337">
         <v>1970</v>
@@ -82007,7 +82007,7 @@
     </row>
     <row r="1338" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1338">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B1338">
         <v>1971</v>
@@ -82018,7 +82018,7 @@
     </row>
     <row r="1339" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1339">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B1339">
         <v>1972</v>
@@ -82029,7 +82029,7 @@
     </row>
     <row r="1340" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1340">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B1340">
         <v>1973</v>
@@ -82040,7 +82040,7 @@
     </row>
     <row r="1341" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1341">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B1341">
         <v>1974</v>
@@ -82051,7 +82051,7 @@
     </row>
     <row r="1342" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1342">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B1342">
         <v>1975</v>
@@ -82062,7 +82062,7 @@
     </row>
     <row r="1343" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1343">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B1343">
         <v>1976</v>
@@ -82073,7 +82073,7 @@
     </row>
     <row r="1344" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1344">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B1344">
         <v>1977</v>
@@ -82084,7 +82084,7 @@
     </row>
     <row r="1345" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1345">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B1345">
         <v>1978</v>
@@ -82095,7 +82095,7 @@
     </row>
     <row r="1346" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1346">
-        <v>800</v>
+        <v>811</v>
       </c>
       <c r="B1346">
         <v>1979</v>
@@ -82106,7 +82106,7 @@
     </row>
     <row r="1347" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1347">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B1347">
         <v>1970</v>
@@ -82117,7 +82117,7 @@
     </row>
     <row r="1348" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1348">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B1348">
         <v>1971</v>
@@ -82128,7 +82128,7 @@
     </row>
     <row r="1349" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1349">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B1349">
         <v>1972</v>
@@ -82139,7 +82139,7 @@
     </row>
     <row r="1350" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1350">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B1350">
         <v>1973</v>
@@ -82150,7 +82150,7 @@
     </row>
     <row r="1351" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1351">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B1351">
         <v>1974</v>
@@ -82161,7 +82161,7 @@
     </row>
     <row r="1352" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1352">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B1352">
         <v>1975</v>
@@ -82172,7 +82172,7 @@
     </row>
     <row r="1353" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1353">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B1353">
         <v>1976</v>
@@ -82183,7 +82183,7 @@
     </row>
     <row r="1354" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1354">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B1354">
         <v>1977</v>
@@ -82194,7 +82194,7 @@
     </row>
     <row r="1355" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1355">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B1355">
         <v>1978</v>
@@ -82205,7 +82205,7 @@
     </row>
     <row r="1356" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1356">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B1356">
         <v>1979</v>
@@ -82216,7 +82216,7 @@
     </row>
     <row r="1357" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1357">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B1357">
         <v>1970</v>
@@ -82227,7 +82227,7 @@
     </row>
     <row r="1358" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1358">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B1358">
         <v>1971</v>
@@ -82238,7 +82238,7 @@
     </row>
     <row r="1359" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1359">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B1359">
         <v>1972</v>
@@ -82249,7 +82249,7 @@
     </row>
     <row r="1360" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1360">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B1360">
         <v>1973</v>
@@ -82260,7 +82260,7 @@
     </row>
     <row r="1361" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1361">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B1361">
         <v>1974</v>
@@ -82271,7 +82271,7 @@
     </row>
     <row r="1362" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1362">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B1362">
         <v>1975</v>
@@ -82282,7 +82282,7 @@
     </row>
     <row r="1363" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1363">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B1363">
         <v>1976</v>
@@ -82293,7 +82293,7 @@
     </row>
     <row r="1364" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1364">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B1364">
         <v>1977</v>
@@ -82304,7 +82304,7 @@
     </row>
     <row r="1365" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1365">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B1365">
         <v>1978</v>
@@ -82315,7 +82315,7 @@
     </row>
     <row r="1366" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1366">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="B1366">
         <v>1979</v>
@@ -82326,7 +82326,7 @@
     </row>
     <row r="1367" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1367">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B1367">
         <v>1970</v>
@@ -82337,7 +82337,7 @@
     </row>
     <row r="1368" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1368">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B1368">
         <v>1971</v>
@@ -82348,7 +82348,7 @@
     </row>
     <row r="1369" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1369">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B1369">
         <v>1972</v>
@@ -82359,7 +82359,7 @@
     </row>
     <row r="1370" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1370">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B1370">
         <v>1973</v>
@@ -82370,7 +82370,7 @@
     </row>
     <row r="1371" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1371">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B1371">
         <v>1974</v>
@@ -82381,7 +82381,7 @@
     </row>
     <row r="1372" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1372">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B1372">
         <v>1975</v>
@@ -82392,10 +82392,10 @@
     </row>
     <row r="1373" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1373">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B1373">
-        <v>1976</v>
+        <v>1970</v>
       </c>
       <c r="C1373">
         <v>0</v>
@@ -82403,10 +82403,10 @@
     </row>
     <row r="1374" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1374">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B1374">
-        <v>1977</v>
+        <v>1971</v>
       </c>
       <c r="C1374">
         <v>0</v>
@@ -82414,10 +82414,10 @@
     </row>
     <row r="1375" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1375">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B1375">
-        <v>1978</v>
+        <v>1972</v>
       </c>
       <c r="C1375">
         <v>0</v>
@@ -82425,10 +82425,10 @@
     </row>
     <row r="1376" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1376">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="B1376">
-        <v>1979</v>
+        <v>1973</v>
       </c>
       <c r="C1376">
         <v>0</v>
@@ -82436,10 +82436,10 @@
     </row>
     <row r="1377" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1377">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B1377">
-        <v>1970</v>
+        <v>1974</v>
       </c>
       <c r="C1377">
         <v>0</v>
@@ -82447,10 +82447,10 @@
     </row>
     <row r="1378" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1378">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B1378">
-        <v>1971</v>
+        <v>1975</v>
       </c>
       <c r="C1378">
         <v>0</v>
@@ -82458,10 +82458,10 @@
     </row>
     <row r="1379" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1379">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B1379">
-        <v>1972</v>
+        <v>1976</v>
       </c>
       <c r="C1379">
         <v>0</v>
@@ -82469,10 +82469,10 @@
     </row>
     <row r="1380" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1380">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B1380">
-        <v>1973</v>
+        <v>1977</v>
       </c>
       <c r="C1380">
         <v>0</v>
@@ -82480,10 +82480,10 @@
     </row>
     <row r="1381" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1381">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B1381">
-        <v>1974</v>
+        <v>1978</v>
       </c>
       <c r="C1381">
         <v>0</v>
@@ -82491,10 +82491,10 @@
     </row>
     <row r="1382" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1382">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B1382">
-        <v>1975</v>
+        <v>1979</v>
       </c>
       <c r="C1382">
         <v>0</v>
@@ -82502,7 +82502,7 @@
     </row>
     <row r="1383" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1383">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="B1383">
         <v>1970</v>
@@ -82513,7 +82513,7 @@
     </row>
     <row r="1384" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1384">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="B1384">
         <v>1971</v>
@@ -82524,7 +82524,7 @@
     </row>
     <row r="1385" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1385">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="B1385">
         <v>1972</v>
@@ -82535,7 +82535,7 @@
     </row>
     <row r="1386" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1386">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="B1386">
         <v>1973</v>
@@ -82546,7 +82546,7 @@
     </row>
     <row r="1387" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1387">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="B1387">
         <v>1974</v>
@@ -82557,7 +82557,7 @@
     </row>
     <row r="1388" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1388">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="B1388">
         <v>1975</v>
@@ -82568,7 +82568,7 @@
     </row>
     <row r="1389" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1389">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="B1389">
         <v>1976</v>
@@ -82579,7 +82579,7 @@
     </row>
     <row r="1390" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1390">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="B1390">
         <v>1977</v>
@@ -82590,7 +82590,7 @@
     </row>
     <row r="1391" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1391">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="B1391">
         <v>1978</v>
@@ -82601,7 +82601,7 @@
     </row>
     <row r="1392" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1392">
-        <v>820</v>
+        <v>830</v>
       </c>
       <c r="B1392">
         <v>1979</v>
@@ -82612,7 +82612,7 @@
     </row>
     <row r="1393" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1393">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="B1393">
         <v>1970</v>
@@ -82623,7 +82623,7 @@
     </row>
     <row r="1394" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1394">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="B1394">
         <v>1971</v>
@@ -82634,7 +82634,7 @@
     </row>
     <row r="1395" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1395">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="B1395">
         <v>1972</v>
@@ -82645,7 +82645,7 @@
     </row>
     <row r="1396" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1396">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="B1396">
         <v>1973</v>
@@ -82656,7 +82656,7 @@
     </row>
     <row r="1397" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1397">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="B1397">
         <v>1974</v>
@@ -82667,7 +82667,7 @@
     </row>
     <row r="1398" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1398">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="B1398">
         <v>1975</v>
@@ -82678,7 +82678,7 @@
     </row>
     <row r="1399" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1399">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="B1399">
         <v>1976</v>
@@ -82689,7 +82689,7 @@
     </row>
     <row r="1400" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1400">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="B1400">
         <v>1977</v>
@@ -82700,7 +82700,7 @@
     </row>
     <row r="1401" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1401">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="B1401">
         <v>1978</v>
@@ -82711,7 +82711,7 @@
     </row>
     <row r="1402" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1402">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="B1402">
         <v>1979</v>
@@ -82722,7 +82722,7 @@
     </row>
     <row r="1403" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1403">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B1403">
         <v>1970</v>
@@ -82733,7 +82733,7 @@
     </row>
     <row r="1404" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1404">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B1404">
         <v>1971</v>
@@ -82744,7 +82744,7 @@
     </row>
     <row r="1405" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1405">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B1405">
         <v>1972</v>
@@ -82755,7 +82755,7 @@
     </row>
     <row r="1406" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1406">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B1406">
         <v>1973</v>
@@ -82766,7 +82766,7 @@
     </row>
     <row r="1407" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1407">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B1407">
         <v>1974</v>
@@ -82777,7 +82777,7 @@
     </row>
     <row r="1408" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1408">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B1408">
         <v>1975</v>
@@ -82788,7 +82788,7 @@
     </row>
     <row r="1409" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1409">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B1409">
         <v>1976</v>
@@ -82799,7 +82799,7 @@
     </row>
     <row r="1410" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1410">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B1410">
         <v>1977</v>
@@ -82810,7 +82810,7 @@
     </row>
     <row r="1411" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1411">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B1411">
         <v>1978</v>
@@ -82821,7 +82821,7 @@
     </row>
     <row r="1412" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1412">
-        <v>840</v>
+        <v>850</v>
       </c>
       <c r="B1412">
         <v>1979</v>
@@ -82832,51 +82832,51 @@
     </row>
     <row r="1413" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1413">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B1413">
         <v>1970</v>
       </c>
       <c r="C1413">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1414" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1414">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B1414">
         <v>1971</v>
       </c>
       <c r="C1414">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1415" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1415">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B1415">
         <v>1972</v>
       </c>
       <c r="C1415">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1416" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1416">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B1416">
         <v>1973</v>
       </c>
       <c r="C1416">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="1417" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1417">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B1417">
         <v>1974</v>
@@ -82887,7 +82887,7 @@
     </row>
     <row r="1418" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1418">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B1418">
         <v>1975</v>
@@ -82898,7 +82898,7 @@
     </row>
     <row r="1419" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1419">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B1419">
         <v>1976</v>
@@ -82909,7 +82909,7 @@
     </row>
     <row r="1420" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1420">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B1420">
         <v>1977</v>
@@ -82920,7 +82920,7 @@
     </row>
     <row r="1421" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1421">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B1421">
         <v>1978</v>
@@ -82931,7 +82931,7 @@
     </row>
     <row r="1422" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1422">
-        <v>850</v>
+        <v>900</v>
       </c>
       <c r="B1422">
         <v>1979</v>
@@ -82942,54 +82942,54 @@
     </row>
     <row r="1423" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1423">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="B1423">
-        <v>1970</v>
+        <v>1975</v>
       </c>
       <c r="C1423">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1424" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1424">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="B1424">
-        <v>1971</v>
+        <v>1976</v>
       </c>
       <c r="C1424">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1425" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1425">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="B1425">
-        <v>1972</v>
+        <v>1977</v>
       </c>
       <c r="C1425">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1426" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1426">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="B1426">
-        <v>1973</v>
+        <v>1978</v>
       </c>
       <c r="C1426">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1427" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1427">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="B1427">
-        <v>1974</v>
+        <v>1979</v>
       </c>
       <c r="C1427">
         <v>0</v>
@@ -82997,10 +82997,10 @@
     </row>
     <row r="1428" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1428">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="B1428">
-        <v>1975</v>
+        <v>1970</v>
       </c>
       <c r="C1428">
         <v>0</v>
@@ -83008,10 +83008,10 @@
     </row>
     <row r="1429" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1429">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="B1429">
-        <v>1976</v>
+        <v>1971</v>
       </c>
       <c r="C1429">
         <v>0</v>
@@ -83019,10 +83019,10 @@
     </row>
     <row r="1430" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1430">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="B1430">
-        <v>1977</v>
+        <v>1972</v>
       </c>
       <c r="C1430">
         <v>0</v>
@@ -83030,10 +83030,10 @@
     </row>
     <row r="1431" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1431">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="B1431">
-        <v>1978</v>
+        <v>1973</v>
       </c>
       <c r="C1431">
         <v>0</v>
@@ -83041,10 +83041,10 @@
     </row>
     <row r="1432" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1432">
-        <v>900</v>
+        <v>920</v>
       </c>
       <c r="B1432">
-        <v>1979</v>
+        <v>1974</v>
       </c>
       <c r="C1432">
         <v>0</v>
@@ -83052,7 +83052,7 @@
     </row>
     <row r="1433" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1433">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="B1433">
         <v>1975</v>
@@ -83063,7 +83063,7 @@
     </row>
     <row r="1434" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1434">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="B1434">
         <v>1976</v>
@@ -83074,7 +83074,7 @@
     </row>
     <row r="1435" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1435">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="B1435">
         <v>1977</v>
@@ -83085,7 +83085,7 @@
     </row>
     <row r="1436" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1436">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="B1436">
         <v>1978</v>
@@ -83096,7 +83096,7 @@
     </row>
     <row r="1437" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1437">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="B1437">
         <v>1979</v>
@@ -83107,10 +83107,10 @@
     </row>
     <row r="1438" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1438">
-        <v>920</v>
+        <v>940</v>
       </c>
       <c r="B1438">
-        <v>1970</v>
+        <v>1978</v>
       </c>
       <c r="C1438">
         <v>0</v>
@@ -83118,10 +83118,10 @@
     </row>
     <row r="1439" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1439">
-        <v>920</v>
+        <v>940</v>
       </c>
       <c r="B1439">
-        <v>1971</v>
+        <v>1979</v>
       </c>
       <c r="C1439">
         <v>0</v>
@@ -83129,10 +83129,10 @@
     </row>
     <row r="1440" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1440">
-        <v>920</v>
+        <v>946</v>
       </c>
       <c r="B1440">
-        <v>1972</v>
+        <v>1975</v>
       </c>
       <c r="C1440">
         <v>0</v>
@@ -83140,10 +83140,10 @@
     </row>
     <row r="1441" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1441">
-        <v>920</v>
+        <v>946</v>
       </c>
       <c r="B1441">
-        <v>1973</v>
+        <v>1976</v>
       </c>
       <c r="C1441">
         <v>0</v>
@@ -83151,10 +83151,10 @@
     </row>
     <row r="1442" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1442">
-        <v>920</v>
+        <v>946</v>
       </c>
       <c r="B1442">
-        <v>1974</v>
+        <v>1977</v>
       </c>
       <c r="C1442">
         <v>0</v>
@@ -83162,10 +83162,10 @@
     </row>
     <row r="1443" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1443">
-        <v>920</v>
+        <v>946</v>
       </c>
       <c r="B1443">
-        <v>1975</v>
+        <v>1978</v>
       </c>
       <c r="C1443">
         <v>0</v>
@@ -83173,10 +83173,10 @@
     </row>
     <row r="1444" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1444">
-        <v>920</v>
+        <v>946</v>
       </c>
       <c r="B1444">
-        <v>1976</v>
+        <v>1979</v>
       </c>
       <c r="C1444">
         <v>0</v>
@@ -83184,10 +83184,10 @@
     </row>
     <row r="1445" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1445">
-        <v>920</v>
+        <v>947</v>
       </c>
       <c r="B1445">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="C1445">
         <v>0</v>
@@ -83195,10 +83195,10 @@
     </row>
     <row r="1446" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1446">
-        <v>920</v>
+        <v>947</v>
       </c>
       <c r="B1446">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="C1446">
         <v>0</v>
@@ -83206,10 +83206,10 @@
     </row>
     <row r="1447" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1447">
-        <v>920</v>
+        <v>950</v>
       </c>
       <c r="B1447">
-        <v>1979</v>
+        <v>1970</v>
       </c>
       <c r="C1447">
         <v>0</v>
@@ -83217,10 +83217,10 @@
     </row>
     <row r="1448" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1448">
-        <v>940</v>
+        <v>950</v>
       </c>
       <c r="B1448">
-        <v>1978</v>
+        <v>1971</v>
       </c>
       <c r="C1448">
         <v>0</v>
@@ -83228,10 +83228,10 @@
     </row>
     <row r="1449" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1449">
-        <v>940</v>
+        <v>950</v>
       </c>
       <c r="B1449">
-        <v>1979</v>
+        <v>1972</v>
       </c>
       <c r="C1449">
         <v>0</v>
@@ -83239,10 +83239,10 @@
     </row>
     <row r="1450" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1450">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="B1450">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="C1450">
         <v>0</v>
@@ -83250,10 +83250,10 @@
     </row>
     <row r="1451" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1451">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="B1451">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="C1451">
         <v>0</v>
@@ -83261,10 +83261,10 @@
     </row>
     <row r="1452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1452">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="B1452">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="C1452">
         <v>0</v>
@@ -83272,10 +83272,10 @@
     </row>
     <row r="1453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1453">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="B1453">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="C1453">
         <v>0</v>
@@ -83283,10 +83283,10 @@
     </row>
     <row r="1454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1454">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="B1454">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="C1454">
         <v>0</v>
@@ -83294,7 +83294,7 @@
     </row>
     <row r="1455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1455">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="B1455">
         <v>1978</v>
@@ -83305,7 +83305,7 @@
     </row>
     <row r="1456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1456">
-        <v>947</v>
+        <v>950</v>
       </c>
       <c r="B1456">
         <v>1979</v>
@@ -83315,8 +83315,8 @@
       </c>
     </row>
     <row r="1457" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1457">
-        <v>950</v>
+      <c r="A1457" s="1">
+        <v>955</v>
       </c>
       <c r="B1457">
         <v>1970</v>
@@ -83326,8 +83326,8 @@
       </c>
     </row>
     <row r="1458" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1458">
-        <v>950</v>
+      <c r="A1458" s="1">
+        <v>955</v>
       </c>
       <c r="B1458">
         <v>1971</v>
@@ -83337,8 +83337,8 @@
       </c>
     </row>
     <row r="1459" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1459">
-        <v>950</v>
+      <c r="A1459" s="1">
+        <v>955</v>
       </c>
       <c r="B1459">
         <v>1972</v>
@@ -83348,8 +83348,8 @@
       </c>
     </row>
     <row r="1460" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1460">
-        <v>950</v>
+      <c r="A1460" s="1">
+        <v>955</v>
       </c>
       <c r="B1460">
         <v>1973</v>
@@ -83359,8 +83359,8 @@
       </c>
     </row>
     <row r="1461" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1461">
-        <v>950</v>
+      <c r="A1461" s="1">
+        <v>955</v>
       </c>
       <c r="B1461">
         <v>1974</v>
@@ -83370,8 +83370,8 @@
       </c>
     </row>
     <row r="1462" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1462">
-        <v>950</v>
+      <c r="A1462" s="1">
+        <v>955</v>
       </c>
       <c r="B1462">
         <v>1975</v>
@@ -83381,8 +83381,8 @@
       </c>
     </row>
     <row r="1463" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1463">
-        <v>950</v>
+      <c r="A1463" s="1">
+        <v>955</v>
       </c>
       <c r="B1463">
         <v>1976</v>
@@ -83392,8 +83392,8 @@
       </c>
     </row>
     <row r="1464" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1464">
-        <v>950</v>
+      <c r="A1464" s="1">
+        <v>955</v>
       </c>
       <c r="B1464">
         <v>1977</v>
@@ -83403,30 +83403,30 @@
       </c>
     </row>
     <row r="1465" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1465">
-        <v>950</v>
-      </c>
-      <c r="B1465">
+      <c r="A1465" s="1">
+        <v>955</v>
+      </c>
+      <c r="B1465" s="1">
         <v>1978</v>
       </c>
-      <c r="C1465">
+      <c r="C1465" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="1466" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1466">
-        <v>950</v>
-      </c>
-      <c r="B1466">
+      <c r="A1466" s="1">
+        <v>955</v>
+      </c>
+      <c r="B1466" s="1">
         <v>1979</v>
       </c>
-      <c r="C1466">
+      <c r="C1466" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="1467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1467" s="1">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="B1467">
         <v>1970</v>
@@ -83437,7 +83437,7 @@
     </row>
     <row r="1468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1468" s="1">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="B1468">
         <v>1971</v>
@@ -83448,7 +83448,7 @@
     </row>
     <row r="1469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1469" s="1">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="B1469">
         <v>1972</v>
@@ -83459,7 +83459,7 @@
     </row>
     <row r="1470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1470" s="1">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="B1470">
         <v>1973</v>
@@ -83470,7 +83470,7 @@
     </row>
     <row r="1471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1471" s="1">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="B1471">
         <v>1974</v>
@@ -83481,7 +83481,7 @@
     </row>
     <row r="1472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1472" s="1">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="B1472">
         <v>1975</v>
@@ -83492,7 +83492,7 @@
     </row>
     <row r="1473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1473" s="1">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="B1473">
         <v>1976</v>
@@ -83503,7 +83503,7 @@
     </row>
     <row r="1474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1474" s="1">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="B1474">
         <v>1977</v>
@@ -83514,7 +83514,7 @@
     </row>
     <row r="1475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1475" s="1">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="B1475" s="1">
         <v>1978</v>
@@ -83525,7 +83525,7 @@
     </row>
     <row r="1476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1476" s="1">
-        <v>955</v>
+        <v>970</v>
       </c>
       <c r="B1476" s="1">
         <v>1979</v>
@@ -83535,8 +83535,8 @@
       </c>
     </row>
     <row r="1477" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1477" s="1">
-        <v>970</v>
+      <c r="A1477">
+        <v>990</v>
       </c>
       <c r="B1477">
         <v>1970</v>
@@ -83546,8 +83546,8 @@
       </c>
     </row>
     <row r="1478" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1478" s="1">
-        <v>970</v>
+      <c r="A1478">
+        <v>990</v>
       </c>
       <c r="B1478">
         <v>1971</v>
@@ -83557,8 +83557,8 @@
       </c>
     </row>
     <row r="1479" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1479" s="1">
-        <v>970</v>
+      <c r="A1479">
+        <v>990</v>
       </c>
       <c r="B1479">
         <v>1972</v>
@@ -83568,8 +83568,8 @@
       </c>
     </row>
     <row r="1480" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1480" s="1">
-        <v>970</v>
+      <c r="A1480">
+        <v>990</v>
       </c>
       <c r="B1480">
         <v>1973</v>
@@ -83579,8 +83579,8 @@
       </c>
     </row>
     <row r="1481" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1481" s="1">
-        <v>970</v>
+      <c r="A1481">
+        <v>990</v>
       </c>
       <c r="B1481">
         <v>1974</v>
@@ -83590,8 +83590,8 @@
       </c>
     </row>
     <row r="1482" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1482" s="1">
-        <v>970</v>
+      <c r="A1482">
+        <v>990</v>
       </c>
       <c r="B1482">
         <v>1975</v>
@@ -83601,8 +83601,8 @@
       </c>
     </row>
     <row r="1483" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1483" s="1">
-        <v>970</v>
+      <c r="A1483">
+        <v>990</v>
       </c>
       <c r="B1483">
         <v>1976</v>
@@ -83612,8 +83612,8 @@
       </c>
     </row>
     <row r="1484" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1484" s="1">
-        <v>970</v>
+      <c r="A1484">
+        <v>990</v>
       </c>
       <c r="B1484">
         <v>1977</v>
@@ -83623,139 +83623,29 @@
       </c>
     </row>
     <row r="1485" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1485" s="1">
-        <v>970</v>
-      </c>
-      <c r="B1485" s="1">
+      <c r="A1485">
+        <v>990</v>
+      </c>
+      <c r="B1485">
         <v>1978</v>
       </c>
-      <c r="C1485" s="1">
+      <c r="C1485">
         <v>0</v>
       </c>
     </row>
     <row r="1486" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1486" s="1">
-        <v>970</v>
-      </c>
-      <c r="B1486" s="1">
+      <c r="A1486">
+        <v>990</v>
+      </c>
+      <c r="B1486">
         <v>1979</v>
       </c>
-      <c r="C1486" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1487" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1487">
-        <v>990</v>
-      </c>
-      <c r="B1487">
-        <v>1970</v>
-      </c>
-      <c r="C1487">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1488" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1488">
-        <v>990</v>
-      </c>
-      <c r="B1488">
-        <v>1971</v>
-      </c>
-      <c r="C1488">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1489" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1489">
-        <v>990</v>
-      </c>
-      <c r="B1489">
-        <v>1972</v>
-      </c>
-      <c r="C1489">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1490" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1490">
-        <v>990</v>
-      </c>
-      <c r="B1490">
-        <v>1973</v>
-      </c>
-      <c r="C1490">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1491" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1491">
-        <v>990</v>
-      </c>
-      <c r="B1491">
-        <v>1974</v>
-      </c>
-      <c r="C1491">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1492" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1492">
-        <v>990</v>
-      </c>
-      <c r="B1492">
-        <v>1975</v>
-      </c>
-      <c r="C1492">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1493" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1493">
-        <v>990</v>
-      </c>
-      <c r="B1493">
-        <v>1976</v>
-      </c>
-      <c r="C1493">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1494" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1494">
-        <v>990</v>
-      </c>
-      <c r="B1494">
-        <v>1977</v>
-      </c>
-      <c r="C1494">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1495" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1495">
-        <v>990</v>
-      </c>
-      <c r="B1495">
-        <v>1978</v>
-      </c>
-      <c r="C1495">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="1496" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1496">
-        <v>990</v>
-      </c>
-      <c r="B1496">
-        <v>1979</v>
-      </c>
-      <c r="C1496">
+      <c r="C1486">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C1496"/>
+  <autoFilter ref="A1:C1486"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -85315,7 +85205,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
